--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692086.712164325</v>
+        <v>1687930.525856358</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>332.8473546522491</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>313.6528204149154</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>65.07538624290785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.96483578850288</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>48.28645458359188</v>
       </c>
       <c r="T5" t="n">
-        <v>147.0333946232734</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.5323656828846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.2184468795539</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>219.4795757055954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>260.3131417448554</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>180.8876387441921</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226086</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>151.8518831495033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.85302310518022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.17501931583779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>78.8939549765409</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.14989839348932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>171.4915124652516</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.235723162483</v>
+        <v>874.7988590758289</v>
       </c>
       <c r="C2" t="n">
-        <v>1601.235723162483</v>
+        <v>874.7988590758289</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.026274018797</v>
+        <v>874.7988590758289</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>874.7988590758289</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>463.8129542862213</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>287.6947354520153</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>730.2783389764124</v>
       </c>
       <c r="M2" t="n">
-        <v>821.3880832278138</v>
+        <v>1371.301548596307</v>
       </c>
       <c r="N2" t="n">
-        <v>1327.837046823166</v>
+        <v>2012.324758216201</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>2287.440977532833</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2487.745304821934</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.835563226605</v>
+        <v>1261.398699139951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>585.1891840496851</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>1161.911999152939</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292955</v>
+        <v>1425.851530648424</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1711.185401081755</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>1949.990352833212</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.9944624701077</v>
+        <v>680.7717144893284</v>
       </c>
       <c r="C4" t="n">
-        <v>679.9944624701077</v>
+        <v>511.8355315614215</v>
       </c>
       <c r="D4" t="n">
-        <v>614.2617490934331</v>
+        <v>361.7188921490857</v>
       </c>
       <c r="E4" t="n">
-        <v>466.34865551104</v>
+        <v>213.8057985666926</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131296</v>
+        <v>66.91585106878225</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780056</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="U4" t="n">
-        <v>679.9944624701077</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="V4" t="n">
-        <v>679.9944624701077</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="W4" t="n">
-        <v>679.9944624701077</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="X4" t="n">
-        <v>679.9944624701077</v>
+        <v>1083.212758463098</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.9944624701077</v>
+        <v>862.4201793195681</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.557833093248</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.557833093248</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2541.218569591904</v>
       </c>
       <c r="T5" t="n">
-        <v>2317.297005133181</v>
+        <v>2541.218569591904</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.297005133181</v>
+        <v>2287.639341534151</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.297005133181</v>
+        <v>1956.57645419058</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.297005133181</v>
+        <v>1603.807798920466</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.297005133181</v>
+        <v>1230.342040659386</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.157673157369</v>
+        <v>1230.342040659386</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.302981905902</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.3118919656587</v>
+        <v>183.3336400496419</v>
       </c>
       <c r="C7" t="n">
-        <v>455.3757090377518</v>
+        <v>183.3336400496419</v>
       </c>
       <c r="D7" t="n">
-        <v>305.259069625416</v>
+        <v>183.3336400496419</v>
       </c>
       <c r="E7" t="n">
-        <v>157.3459760430229</v>
+        <v>183.3336400496419</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1227.599429701828</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1227.599429701828</v>
+        <v>1357.865893164277</v>
       </c>
       <c r="V7" t="n">
-        <v>972.914941495941</v>
+        <v>1103.18140495839</v>
       </c>
       <c r="W7" t="n">
-        <v>972.914941495941</v>
+        <v>813.7642349214291</v>
       </c>
       <c r="X7" t="n">
-        <v>972.914941495941</v>
+        <v>585.7746840234117</v>
       </c>
       <c r="Y7" t="n">
-        <v>752.1223623524108</v>
+        <v>364.9821048798816</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1053.797303952563</v>
+        <v>1885.464120536336</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.797303952563</v>
+        <v>1885.464120536336</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.797303952563</v>
+        <v>1527.198421929585</v>
       </c>
       <c r="E8" t="n">
-        <v>1053.797303952563</v>
+        <v>1141.410169331341</v>
       </c>
       <c r="F8" t="n">
-        <v>642.8113991629559</v>
+        <v>730.4242645417337</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>314.7424227418657</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135506</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>1796.705291198489</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W8" t="n">
-        <v>1443.936635928375</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.936635928375</v>
+        <v>1885.464120536336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1053.797303952563</v>
+        <v>1885.464120536336</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>688.5974568552864</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>985.9094059716011</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.993511610141</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>305.993511610141</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>305.993511610141</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>305.993511610141</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1362.147521300609</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1139.21294684259</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>850.0951698529885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>595.4106816471017</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>305.993511610141</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>305.993511610141</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.993511610141</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753273</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3524.185693912098</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>495.6698148589829</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>348.7798673610725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2876.594459243706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2876.594459243706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.031133642634</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942366</v>
       </c>
       <c r="N2" t="n">
-        <v>203.0038963229964</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159829</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>74.6388266770993</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>196.382613367552</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.7458546176088</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>299.8549597144492</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>65.37844346995246</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>119.3759750973107</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>134.6711151870877</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.44045370237457</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.682081788448</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936795.6204380221</v>
+        <v>936795.6204380227</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.6991757649</v>
+        <v>-655136.6991757615</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.9465351343</v>
+        <v>138364.9465351303</v>
       </c>
       <c r="D6" t="n">
-        <v>311129.3063250264</v>
+        <v>311129.3063250265</v>
       </c>
       <c r="E6" t="n">
-        <v>-83653.58830284906</v>
+        <v>-84000.96755720582</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429019</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="J6" t="n">
-        <v>247821.2626168538</v>
+        <v>247473.8833624967</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885446</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="M6" t="n">
-        <v>286350.8225386664</v>
+        <v>286003.4432843094</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429019</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429017</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.279442902</v>
+        <v>416887.9001885448</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522379</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>21.83568696843383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>98.63491828012883</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.5400867753045</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>151.6737188943044</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.64895419086113</v>
       </c>
       <c r="T5" t="n">
-        <v>59.52551132248738</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.29961449905265</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>15.20260114337731</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>192.045447676274</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>40.47314550360431</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>13.59753058989901</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.4310422139824</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940682</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>447.0541449741386</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N2" t="n">
-        <v>511.5646096922745</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>103.2802639586397</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840947</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691773</v>
       </c>
       <c r="N3" t="n">
-        <v>362.8548574178398</v>
+        <v>288.2160307407382</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>370.4522708965501</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
@@ -35023,19 +35023,19 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>570.7518035997557</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>551.8516545275995</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>365.693543587442</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>371.3726699104611</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962379</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1687930.525856358</v>
+        <v>1689691.056159144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>313.6528204149154</v>
+        <v>102.3071336376084</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885219</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734244</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906504</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833759</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.96483578850288</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.96483578850506</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>48.28645458359188</v>
+        <v>113.1220200312711</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.2184468795539</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>178.631926015974</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>260.3131417448554</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5827519824189</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>175.8265476954863</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>109.8058856274581</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>205.3566940380638</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5115415340516</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>78.8939549765409</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>171.4915124652516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874.7988590758289</v>
+        <v>643.0662159394194</v>
       </c>
       <c r="C2" t="n">
-        <v>874.7988590758289</v>
+        <v>643.0662159394194</v>
       </c>
       <c r="D2" t="n">
-        <v>874.7988590758289</v>
+        <v>643.0662159394194</v>
       </c>
       <c r="E2" t="n">
-        <v>874.7988590758289</v>
+        <v>257.2779633411752</v>
       </c>
       <c r="F2" t="n">
-        <v>463.8129542862213</v>
+        <v>250.3324625919717</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870219</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520153</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764124</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596307</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216201</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532833</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821934</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140987</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016316</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077747</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>1793.271146240433</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>1793.271146240433</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>1419.805387979353</v>
       </c>
       <c r="Y2" t="n">
-        <v>1261.398699139951</v>
+        <v>1029.666056003541</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.629392168681</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093853</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369546</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496851</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152939</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648424</v>
+        <v>1164.030946005973</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081755</v>
+        <v>1449.364816439304</v>
       </c>
       <c r="O3" t="n">
-        <v>1949.990352833212</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140987</v>
@@ -4439,7 +4439,7 @@
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.7717144893284</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>511.8355315614215</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>361.7188921490857</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>213.8057985666926</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>66.91585106878225</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018365</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159861</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341293</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666686</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092685</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357423</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993466</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361116</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.212758463098</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.4201793195681</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.7422005952644</v>
+        <v>778.251730446093</v>
       </c>
       <c r="C5" t="n">
-        <v>843.7422005952644</v>
+        <v>778.251730446093</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7422005952644</v>
+        <v>778.251730446093</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>432.7562958056569</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2541.218569591904</v>
+        <v>2475.728099442732</v>
       </c>
       <c r="T5" t="n">
-        <v>2541.218569591904</v>
+        <v>2475.728099442732</v>
       </c>
       <c r="U5" t="n">
-        <v>2287.639341534151</v>
+        <v>2222.148871384979</v>
       </c>
       <c r="V5" t="n">
-        <v>1956.57645419058</v>
+        <v>1891.085984041409</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.807798920466</v>
+        <v>1538.317328771295</v>
       </c>
       <c r="X5" t="n">
-        <v>1230.342040659386</v>
+        <v>1164.851570510215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.342040659386</v>
+        <v>1164.851570510215</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
-        <v>965.564585834469</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3336400496419</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>183.3336400496419</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>183.3336400496419</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>183.3336400496419</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281973</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4758,19 +4758,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164277</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.18140495839</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>813.7642349214291</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>585.7746840234117</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.9821048798816</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1885.464120536336</v>
+        <v>1761.28693995608</v>
       </c>
       <c r="C8" t="n">
-        <v>1885.464120536336</v>
+        <v>1761.28693995608</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.198421929585</v>
+        <v>1403.02124134933</v>
       </c>
       <c r="E8" t="n">
-        <v>1141.410169331341</v>
+        <v>1017.232988751085</v>
       </c>
       <c r="F8" t="n">
-        <v>730.4242645417337</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>314.7424227418657</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135506</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797416</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W8" t="n">
-        <v>2258.929878797416</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="X8" t="n">
-        <v>1885.464120536336</v>
+        <v>1761.28693995608</v>
       </c>
       <c r="Y8" t="n">
-        <v>1885.464120536336</v>
+        <v>1761.28693995608</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552864</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L9" t="n">
-        <v>985.9094059716011</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463927</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>472.4514170392431</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>303.5152341113362</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>153.3985946990005</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>874.892461013013</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>654.0998818694828</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,13 +5296,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>422.7903292978459</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>422.7903292978459</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G37" t="n">
-        <v>255.5942300127259</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>155.0763917523266</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
         <v>402.7245934908939</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
-        <v>207.031133642634</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942366</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659714</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.3850817401895</v>
       </c>
       <c r="P3" t="n">
-        <v>196.382613367552</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8549597144492</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>119.3759750973107</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4.005432486451042</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>12.04875628922449</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>38.5977558415268</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936795.6204380227</v>
+        <v>936795.6204380224</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.150411784</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26334,22 +26334,22 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753948</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898961</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151605</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699083</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.6991757615</v>
+        <v>-655136.6991757622</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.9465351303</v>
+        <v>138364.9465351314</v>
       </c>
       <c r="D6" t="n">
-        <v>311129.3063250265</v>
+        <v>311129.3063250264</v>
       </c>
       <c r="E6" t="n">
-        <v>-84000.96755720582</v>
+        <v>-83688.32622828483</v>
       </c>
       <c r="F6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.541517466</v>
       </c>
       <c r="G6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.541517466</v>
       </c>
       <c r="H6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.541517466</v>
       </c>
       <c r="I6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="J6" t="n">
-        <v>247473.8833624967</v>
+        <v>247786.5246914178</v>
       </c>
       <c r="K6" t="n">
-        <v>416887.9001885446</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="L6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.541517466</v>
       </c>
       <c r="M6" t="n">
-        <v>286003.4432843094</v>
+        <v>286316.0846132308</v>
       </c>
       <c r="N6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="O6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="P6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174661</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522379</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>98.63491828012883</v>
+        <v>309.9806050574357</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495114</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>151.6737188943044</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639206</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994864</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713016</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.5581625480859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>74.64895419086113</v>
+        <v>9.813388743181903</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.20260114337731</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27830,13 +27830,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>228.2441197257374</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>40.47314550360431</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>45.85121066415023</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139824</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090879</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625572</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115537</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066885</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611355</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014918</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682829</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658663</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485875</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775938</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330891</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325338</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282097</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494783</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072703</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674098</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743142</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307749</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859901</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261546</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605097</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911956</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240715</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257139</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433284</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028901</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526427</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9638617996921</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993399</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651422</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351901</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777186</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855552</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711379</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600305</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932497</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840036</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184392</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351501</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311386</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519936</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567068</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965165</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189582</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>667.8124403339916</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000217</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161549</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741386</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352467</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352467</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269007</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223243</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586397</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597322</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643742</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840947</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691773</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407382</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812694</v>
+        <v>383.6022047214595</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4522708965501</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527177</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882741</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.857665945255</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203466</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550902</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632322</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324789</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000436</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944423</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>501.0609547350981</v>
       </c>
       <c r="P6" t="n">
-        <v>551.8516545275995</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35266,16 +35266,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>371.3726699104611</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>525.6784064119734</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
